--- a/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
@@ -637,133 +637,133 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Richard - Ghana</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>88540.91</v>
+        <v>52005.36</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>88540.91</v>
+        <v>52005.36</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>88540.91</v>
+        <v>52005.36000000004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>Richard - Ghana</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>52005.36</v>
+        <v>47911.79</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0</v>
+        <v>18358.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>52005.36</v>
+        <v>29552.91</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>52005.36000000004</v>
+        <v>28715.39999999994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>49157.89</v>
+        <v>30642.32</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>18358.88</v>
+        <v>4069.900000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>30799.01</v>
+        <v>26572.42</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>29961.49999999993</v>
+        <v>26572.42000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>30642.32</v>
+        <v>45208.65</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>4069.900000000001</v>
+        <v>21591.08</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>26572.42</v>
+        <v>23617.57</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>26572.42000000001</v>
+        <v>23617.57000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Franchesta - USA</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45208.65</v>
+        <v>31252.8</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>21591.08</v>
+        <v>12000</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>23617.57</v>
+        <v>19252.8</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>23617.57000000001</v>
+        <v>19252.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Cem Mermer (Cemalettin)</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>17019.9</v>
+        <v>17777.06</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>17019.9</v>
+        <v>17777.06</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>17019.89999999999</v>
+        <v>17777.06000000011</v>
       </c>
     </row>
     <row r="10">
@@ -776,104 +776,104 @@
         <v>17163.84</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>787.7700000000004</v>
+        <v>1226.73</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>16376.07</v>
+        <v>15937.11</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>16376.07000000001</v>
+        <v>15937.11000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>KWABENA OSEI BONSU - Ghana</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>13870.69</v>
+        <v>62211.04999999999</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0</v>
+        <v>32533.34</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>13870.69</v>
+        <v>29677.70999999999</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0</v>
+        <v>16266.66</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>13870.69000000012</v>
+        <v>13411.04999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Yosof - Oman</t>
+          <t>Gebran - Bahrain</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>17840</v>
+        <v>17560.99</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>2400</v>
+        <v>6938.84</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>15440</v>
+        <v>10622.15</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>13039.99999999994</v>
+        <v>10622.15000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>Atlanta - Stone Mountain</t>
+          <t>Oday Mosalam - Germany</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>12630.99</v>
+        <v>15556.41</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0</v>
+        <v>6428.790000000001</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>12630.99</v>
+        <v>9127.619999999999</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>12630.99</v>
+        <v>9127.619999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Alex - Ghana</t>
+          <t>Villo Home - USA</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>9083.41</v>
+        <v>12833.98</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0</v>
+        <v>6417</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>9083.41</v>
+        <v>6416.98</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>9083.410000000003</v>
+        <v>6416.979999999967</v>
       </c>
     </row>
     <row r="15">
@@ -901,45 +901,45 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
+          <t>Hisarli Mermer</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>4852.4</v>
+        <v>3407.38</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>4852.4</v>
+        <v>3407.38</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>4852.400000000003</v>
+        <v>3407.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Atlanta - Stone Mountain</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>3127.74</v>
+        <v>2934.75</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>3127.74</v>
+        <v>2934.75</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>3127.739999999998</v>
+        <v>2934.75</v>
       </c>
     </row>
     <row r="18">
@@ -967,205 +967,205 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>Hisarli Mermer</t>
+          <t>Brent Losey - USA</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2575.15</v>
+        <v>7421.790000000001</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0</v>
+        <v>4934.970000000001</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>2575.15</v>
+        <v>2486.82</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>2575.15</v>
+        <v>2486.82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>Cüneyt Kunter - Turkey</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1615</v>
+        <v>2475</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1615</v>
+        <v>2475</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>1615</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>Yer Ev Dekor</t>
+          <t>Yamanlar Mermer - Turkey</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>820.47</v>
+        <v>2107.56</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>820.47</v>
+        <v>2107.56</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>820.47</v>
+        <v>2107.56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>Abbas - Angola</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>18099.44</v>
+        <v>1762</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>17739.75</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>359.6899999999987</v>
+        <v>1762</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>359.6900000000314</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>Nana Konadu - Ghana</t>
+          <t>Bilgihan - Turkey</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>1588.84</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>0</v>
+        <v>1588.84</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-484.5299999999988</v>
+        <v>1588.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael - Germany </t>
+          <t>Cüneyt Kunter - Turkey</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0</v>
+        <v>167.25</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>0</v>
+        <v>1447.75</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>-1000</v>
+        <v>1447.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Muhammed - Turkey</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>703.26</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>0</v>
+        <v>703.26</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>-2758.849999999999</v>
+        <v>703.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>JFB - Nevis</t>
+          <t>MARBLESHOP - Turkey</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>528.96</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>0</v>
+        <v>528.96</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-4000</v>
+        <v>528.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>Villo Home - USA</t>
+          <t>Abbas - Angola</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5934.6</v>
+        <v>18099.44</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>3720</v>
+        <v>17739.75</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>2214.6</v>
+        <v>359.6899999999987</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>6417</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-4202.400000000038</v>
+        <v>359.6900000000314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>Donald Gorski - USA</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>5356.58</v>
+        <v>437.36</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-5356.58</v>
+        <v>-437.3600000000073</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Ante Drazic - HR</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>6309</v>
+        <v>470</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-6309.000000000175</v>
+        <v>-470</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>VIA - Russia</t>
+          <t>Nana Konadu - Ghana</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
@@ -1222,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>8875.18</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-8875.179999999884</v>
+        <v>-484.5299999999988</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
+          <t>Manhal Najjar - Dubai</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>10774.99</v>
+        <v>650</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>-10774.99</v>
+        <v>-650</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>Esi Okyere - Ghana</t>
+          <t>Sean - MALTA</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>12870</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>-12870</v>
+        <v>-2758.849999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0</v>
+        <v>3232.5</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>-20341.52000000001</v>
+        <v>-3232.499999999998</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>Douglas - Belize</t>
+          <t>JFB - Nevis</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>-34000</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>Bigeni - Malta</t>
+          <t>Rasma Decor - BH</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
@@ -1332,153 +1332,363 @@
         <v>0</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>35798.24</v>
+        <v>4000</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>-35798.24</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
+          <t>Andrey &amp; Sergey - RU</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>-4200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>Ardexline - Moldova</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>5241.12</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>-5241.12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>Esi Okyere - Ghana</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>Robert - Bahamas</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>Tracy - AU</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>-6000.010000000177</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>7112.35</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>-7112.350000000004</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>VIA - Russia</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>8875.18</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>-8875.179999999884</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>9913.809999999999</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>-9913.810000000007</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>Bruno Perre - France</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>24762.6</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>-24762.6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>Sheikh - UAE</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>27500</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>-27500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>31710.48</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>31283.54</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>426.9399999999987</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>31714.96</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>-31288.02</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>Atu - Ghana</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>33660.6</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>-33660.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>Seth, TDWL - Ghana</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>47000</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>-47000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
           <t>Carl Max - Ghana</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>105000</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>-105000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="n"/>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="4" t="n"/>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="n"/>
-      <c r="B38" s="3" t="n"/>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="n"/>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="n"/>
-      <c r="B40" s="3" t="n"/>
-      <c r="C40" s="3" t="n"/>
-      <c r="D40" s="4" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="n"/>
-      <c r="B41" s="3" t="n"/>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="4" t="n"/>
-      <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="n"/>
-      <c r="B42" s="3" t="n"/>
-      <c r="C42" s="3" t="n"/>
-      <c r="D42" s="4" t="n"/>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="n"/>
-      <c r="B43" s="3" t="n"/>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="4" t="n"/>
-      <c r="E43" s="3" t="n"/>
-      <c r="F43" s="3" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="n"/>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n"/>
-      <c r="D44" s="4" t="n"/>
-      <c r="E44" s="3" t="n"/>
-      <c r="F44" s="3" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="4" t="n"/>
-      <c r="E45" s="3" t="n"/>
-      <c r="F45" s="3" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="7" t="n"/>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="4" t="n"/>
-      <c r="E46" s="3" t="n"/>
-      <c r="F46" s="3" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
-      <c r="D47" s="4" t="n"/>
-      <c r="E47" s="3" t="n"/>
-      <c r="F47" s="3" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="7" t="n"/>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
-      <c r="D48" s="4" t="n"/>
-      <c r="E48" s="3" t="n"/>
-      <c r="F48" s="3" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="7" t="n"/>
-      <c r="B49" s="3" t="n"/>
-      <c r="C49" s="3" t="n"/>
-      <c r="D49" s="4" t="n"/>
-      <c r="E49" s="3" t="n"/>
-      <c r="F49" s="3" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="7" t="n"/>
-      <c r="B50" s="3" t="n"/>
-      <c r="C50" s="3" t="n"/>
-      <c r="D50" s="4" t="n"/>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="7" t="n"/>
-      <c r="B51" s="3" t="n"/>
-      <c r="C51" s="3" t="n"/>
-      <c r="D51" s="4" t="n"/>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
+      <c r="B51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>78512.82000000001</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>-78512.82000000001</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="n"/>

--- a/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/konteyner_listesi.xlsx
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>500777.4500000001</v>
+        <v>585134.41</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2144.309999999998</v>
+        <v>3544.309999999939</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>498633.1400000001</v>
+        <v>581590.1000000001</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>497233.1100000017</v>
+        <v>581590.0700000017</v>
       </c>
     </row>
     <row r="4">
@@ -659,513 +659,513 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>47911.79</v>
+        <v>20465.66</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>18358.88</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>29552.91</v>
+        <v>20465.66</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>28715.39999999994</v>
+        <v>20465.66000000012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Ben Persell Thompson - UK</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>30642.32</v>
+        <v>27058.5</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>4069.900000000001</v>
+        <v>7000</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>26572.42</v>
+        <v>20058.5</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>26572.42000000001</v>
+        <v>19739.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Gebran - Bahrain</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>45208.65</v>
+        <v>19635.55</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>21591.08</v>
+        <v>7239.860000000001</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>23617.57</v>
+        <v>12395.69</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>23617.57000000001</v>
+        <v>12395.69000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>Franchesta - USA</t>
+          <t>Mustek Engineering - Ghana</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>31252.8</v>
+        <v>21110.11</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>12000</v>
+        <v>14554.48</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>19252.8</v>
+        <v>6555.630000000001</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>19252.8</v>
+        <v>6555.630000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Nova - Elaine</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>17777.06</v>
+        <v>15910.9</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>17777.06</v>
+        <v>5910.900000000001</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>17777.06000000011</v>
+        <v>5910.899999999994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>17163.84</v>
+        <v>4018.95</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1226.73</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>15937.11</v>
+        <v>4018.95</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>15937.11000000001</v>
+        <v>4018.949999999772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>KWABENA OSEI BONSU - Ghana</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>62211.04999999999</v>
+        <v>3637.7</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>32533.34</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>29677.70999999999</v>
+        <v>3637.7</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>16266.66</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>13411.04999999999</v>
+        <v>3637.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Gebran - Bahrain</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>17560.99</v>
+        <v>2813.04</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>6938.84</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>10622.15</v>
+        <v>2813.04</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>10622.15000000001</v>
+        <v>2813.040000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>Oday Mosalam - Germany</t>
+          <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>15556.41</v>
+        <v>2593.6</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>6428.790000000001</v>
+        <v>305.4400000000001</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>9127.619999999999</v>
+        <v>2288.16</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>9127.619999999999</v>
+        <v>2288.160000000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Villo Home - USA</t>
+          <t>Yamanlar Mermer - Turkey</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>12833.98</v>
+        <v>2107.56</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>6417</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>6416.98</v>
+        <v>2107.56</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>6416.979999999967</v>
+        <v>2107.56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>Cüneyt Kunter - Turkey</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>15910.9</v>
+        <v>1615</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>10000</v>
+        <v>167.25</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>5910.900000000001</v>
+        <v>1447.75</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>5910.899999999994</v>
+        <v>1447.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Hisarli Mermer</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>3407.38</v>
+        <v>30642.32</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0</v>
+        <v>30069.9</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>3407.38</v>
+        <v>572.4199999999983</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>3407.38</v>
+        <v>572.4200000000128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>Atlanta - Stone Mountain</t>
+          <t>Abbas - Angola</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2934.75</v>
+        <v>18099.44</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0</v>
+        <v>17739.75</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>2934.75</v>
+        <v>359.6899999999987</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>2934.75</v>
+        <v>359.6900000000314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>İrfan - Turkey</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2813.04</v>
+        <v>1072.38</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>2813.04</v>
+        <v>112.8800000000001</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>2813.040000000001</v>
+        <v>112.8800000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>Brent Losey - USA</t>
+          <t>Nana Konadu - Ghana</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>7421.790000000001</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>4934.970000000001</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>2486.82</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>2486.82</v>
+        <v>-484.5299999999988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
+          <t>Arron - AU</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2475</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>2475</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0</v>
+        <v>1434.6</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>2475</v>
+        <v>-1434.600000000002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>Yamanlar Mermer - Turkey</t>
+          <t>David Vickers - Turkey</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2107.56</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>2107.56</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>2107.56</v>
+        <v>-2304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
+          <t>Mama Abui - Ghana</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>1762</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>Bilgihan - Turkey</t>
+          <t>JFB - Nevis</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1588.84</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>1588.84</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>1588.84</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>Cüneyt Kunter - Turkey</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1615</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>167.25</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>1447.75</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0</v>
+        <v>6382.43</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>1447.75</v>
+        <v>-6382.429999999993</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>Muhammed - Turkey</t>
+          <t>Patrick - Germany</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>703.26</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>703.26</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0</v>
+        <v>8253.120000000001</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>703.26</v>
+        <v>-8253.119999999986</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>MARBLESHOP - Turkey</t>
+          <t>VIA - Russia</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>528.96</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>528.96</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0</v>
+        <v>8875.18</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>528.96</v>
+        <v>-8875.179999999884</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>Abbas - Angola</t>
+          <t>Stephen Adjokatcher - Ghana</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>18099.44</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>17739.75</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>359.6899999999987</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>359.6900000000314</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Bruno Perre - France</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>437.36</v>
+        <v>14295.19</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-437.3600000000073</v>
+        <v>-14295.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>Ante Drazic - HR</t>
+          <t>Ingo - Ghana</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>470</v>
+        <v>19006.33</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-470</v>
+        <v>-19006.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>Nana Konadu - Ghana</t>
+          <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
@@ -1222,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0</v>
+        <v>21110</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-484.5299999999988</v>
+        <v>-21110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>Manhal Najjar - Dubai</t>
+          <t>Guilermo - USA</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>650</v>
+        <v>21692</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>-650</v>
+        <v>-21692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0</v>
+        <v>28748.64</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>-2758.849999999999</v>
+        <v>-28748.64000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
+          <t>Douglas - Belize</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
@@ -1288,407 +1288,155 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>3232.5</v>
+        <v>39309.87</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>-3232.499999999998</v>
+        <v>-39309.87000000001</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>JFB - Nevis</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>-4000</v>
-      </c>
+      <c r="A34" s="7" t="n"/>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>Rasma Decor - BH</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>-4000</v>
-      </c>
+      <c r="A35" s="7" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>Andrey &amp; Sergey - RU</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>4200</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>-4200</v>
-      </c>
+      <c r="A36" s="7" t="n"/>
+      <c r="B36" s="3" t="n"/>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="inlineStr">
-        <is>
-          <t>Ardexline - Moldova</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>5241.12</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>-5241.12</v>
-      </c>
+      <c r="A37" s="7" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>Esi Okyere - Ghana</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>-6000</v>
-      </c>
+      <c r="A38" s="7" t="n"/>
+      <c r="B38" s="3" t="n"/>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="inlineStr">
-        <is>
-          <t>Robert - Bahamas</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>-6000</v>
-      </c>
+      <c r="A39" s="7" t="n"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="inlineStr">
-        <is>
-          <t>Tracy - AU</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>-6000</v>
-      </c>
+      <c r="A40" s="7" t="n"/>
+      <c r="B40" s="3" t="n"/>
+      <c r="C40" s="3" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="inlineStr">
-        <is>
-          <t>Kirill - Russia</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>-6000.010000000177</v>
-      </c>
+      <c r="A41" s="7" t="n"/>
+      <c r="B41" s="3" t="n"/>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>7112.35</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>-7112.350000000004</v>
-      </c>
+      <c r="A42" s="7" t="n"/>
+      <c r="B42" s="3" t="n"/>
+      <c r="C42" s="3" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="inlineStr">
-        <is>
-          <t>VIA - Russia</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>8875.18</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>-8875.179999999884</v>
-      </c>
+      <c r="A43" s="7" t="n"/>
+      <c r="B43" s="3" t="n"/>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="inlineStr">
-        <is>
-          <t>Bigeni - Malta</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>9913.809999999999</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>-9913.810000000007</v>
-      </c>
+      <c r="A44" s="7" t="n"/>
+      <c r="B44" s="3" t="n"/>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="3" t="n"/>
+      <c r="F44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>Bruno Perre - France</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>24762.6</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>-24762.6</v>
-      </c>
+      <c r="A45" s="7" t="n"/>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="inlineStr">
-        <is>
-          <t>Sheikh - UAE</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>25000</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>-25000</v>
-      </c>
+      <c r="A46" s="7" t="n"/>
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="inlineStr">
-        <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>27500</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>-27500</v>
-      </c>
+      <c r="A47" s="7" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>31710.48</v>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>31283.54</v>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>426.9399999999987</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>31714.96</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>-31288.02</v>
-      </c>
+      <c r="A48" s="7" t="n"/>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="inlineStr">
-        <is>
-          <t>Atu - Ghana</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>33660.6</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>-33660.6</v>
-      </c>
+      <c r="A49" s="7" t="n"/>
+      <c r="B49" s="3" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="inlineStr">
-        <is>
-          <t>Seth, TDWL - Ghana</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>47000</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>-47000</v>
-      </c>
+      <c r="A50" s="7" t="n"/>
+      <c r="B50" s="3" t="n"/>
+      <c r="C50" s="3" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="inlineStr">
-        <is>
-          <t>Carl Max - Ghana</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>78512.82000000001</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>-78512.82000000001</v>
-      </c>
+      <c r="A51" s="7" t="n"/>
+      <c r="B51" s="3" t="n"/>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="n"/>
